--- a/关系图模版/需配置的表格/example.xlsx
+++ b/关系图模版/需配置的表格/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominic/Desktop/关系图模版/需配置的表格/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45859CAE-CC5D-7143-A661-E5F56A0ACF0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041CA7ED-51F0-B943-816E-97ABAD4B0BA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="600" windowWidth="27840" windowHeight="15800" xr2:uid="{BBA69E4F-0E5F-DB4E-8C3D-61FF4C7401EF}"/>
   </bookViews>
@@ -49,14 +49,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>element</t>
   </si>
   <si>
-    <t>num</t>
-  </si>
-  <si>
     <t>cnt</t>
   </si>
   <si>
@@ -94,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>节点值（边文件根据此点值进行连线）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>节点大小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,12 +123,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xxxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yyyyyy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>节点id（边文件根据此点值进行连线）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边值（长度）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息3</t>
+  </si>
+  <si>
+    <t>信息4</t>
+  </si>
+  <si>
+    <t>信息5</t>
   </si>
 </sst>
 </file>
@@ -534,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83E5166-E4C1-0A4F-83CA-15E45F3D753C}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -552,25 +586,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -578,45 +612,77 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1">
         <v>20190910</v>
       </c>
       <c r="E3">
-        <v>119103</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>40590</v>
       </c>
       <c r="G3">
         <v>34.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +700,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -646,19 +712,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -666,27 +732,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3">
-        <v>40590</v>
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -697,13 +763,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4">
-        <v>40590</v>
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -712,9 +778,42 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:5">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/关系图模版/需配置的表格/example.xlsx
+++ b/关系图模版/需配置的表格/example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominic/Desktop/关系图模版/需配置的表格/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominic/Desktop/github/echarts-guanxi/关系图模版/需配置的表格/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041CA7ED-51F0-B943-816E-97ABAD4B0BA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1693CCD0-594B-494B-B829-316F78BECF81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="600" windowWidth="27840" windowHeight="15800" xr2:uid="{BBA69E4F-0E5F-DB4E-8C3D-61FF4C7401EF}"/>
   </bookViews>
@@ -660,6 +660,9 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
+      <c r="D4" s="1">
+        <v>20190910</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
@@ -668,6 +671,9 @@
       <c r="C5" t="s">
         <v>25</v>
       </c>
+      <c r="D5" s="1">
+        <v>20190910</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
@@ -676,6 +682,9 @@
       <c r="C6" t="s">
         <v>26</v>
       </c>
+      <c r="D6" s="1">
+        <v>20190910</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" t="s">
@@ -683,6 +692,9 @@
       </c>
       <c r="C7" t="s">
         <v>22</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20190910</v>
       </c>
     </row>
   </sheetData>

--- a/关系图模版/需配置的表格/example.xlsx
+++ b/关系图模版/需配置的表格/example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominic/Desktop/关系图模版/需配置的表格/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominic/Desktop/github/echarts-guanxi/关系图模版/需配置的表格/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041CA7ED-51F0-B943-816E-97ABAD4B0BA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F2D79F-5267-7A41-AC55-8D3B1B7372C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="600" windowWidth="27840" windowHeight="15800" xr2:uid="{BBA69E4F-0E5F-DB4E-8C3D-61FF4C7401EF}"/>
   </bookViews>
@@ -571,7 +571,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -660,6 +660,9 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
+      <c r="D4" s="1">
+        <v>20190910</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
@@ -668,6 +671,9 @@
       <c r="C5" t="s">
         <v>25</v>
       </c>
+      <c r="D5" s="1">
+        <v>20190910</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
@@ -676,6 +682,9 @@
       <c r="C6" t="s">
         <v>26</v>
       </c>
+      <c r="D6" s="1">
+        <v>20190910</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" t="s">
@@ -683,6 +692,9 @@
       </c>
       <c r="C7" t="s">
         <v>22</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20190910</v>
       </c>
     </row>
   </sheetData>

--- a/关系图模版/需配置的表格/example.xlsx
+++ b/关系图模版/需配置的表格/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominic/Desktop/github/echarts-guanxi/关系图模版/需配置的表格/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F2D79F-5267-7A41-AC55-8D3B1B7372C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596DBBCA-B59C-564C-86A0-DBE9C44B6010}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="600" windowWidth="27840" windowHeight="15800" xr2:uid="{BBA69E4F-0E5F-DB4E-8C3D-61FF4C7401EF}"/>
   </bookViews>
@@ -571,7 +571,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E7" sqref="B2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -597,7 +597,7 @@
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F1" t="s">
@@ -663,6 +663,9 @@
       <c r="D4" s="1">
         <v>20190910</v>
       </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
@@ -674,6 +677,9 @@
       <c r="D5" s="1">
         <v>20190910</v>
       </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
@@ -685,6 +691,9 @@
       <c r="D6" s="1">
         <v>20190910</v>
       </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" t="s">
@@ -695,6 +704,9 @@
       </c>
       <c r="D7" s="1">
         <v>20190910</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -712,7 +724,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
+      <selection activeCell="B2" sqref="B2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/关系图模版/需配置的表格/example.xlsx
+++ b/关系图模版/需配置的表格/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominic/Desktop/github/echarts-guanxi/关系图模版/需配置的表格/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596DBBCA-B59C-564C-86A0-DBE9C44B6010}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F2D79F-5267-7A41-AC55-8D3B1B7372C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="600" windowWidth="27840" windowHeight="15800" xr2:uid="{BBA69E4F-0E5F-DB4E-8C3D-61FF4C7401EF}"/>
   </bookViews>
@@ -571,7 +571,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="B2:E7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -597,7 +597,7 @@
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>20</v>
       </c>
       <c r="F1" t="s">
@@ -663,9 +663,6 @@
       <c r="D4" s="1">
         <v>20190910</v>
       </c>
-      <c r="E4">
-        <v>9</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
@@ -677,9 +674,6 @@
       <c r="D5" s="1">
         <v>20190910</v>
       </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
@@ -691,9 +685,6 @@
       <c r="D6" s="1">
         <v>20190910</v>
       </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" t="s">
@@ -704,9 +695,6 @@
       </c>
       <c r="D7" s="1">
         <v>20190910</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -724,7 +712,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D7"/>
+      <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/关系图模版/需配置的表格/example.xlsx
+++ b/关系图模版/需配置的表格/example.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominic/Desktop/github/echarts-guanxi/关系图模版/需配置的表格/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596DBBCA-B59C-564C-86A0-DBE9C44B6010}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0B4EAD-0B7B-794E-9F8C-087EFBC9EC8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="600" windowWidth="27840" windowHeight="15800" xr2:uid="{BBA69E4F-0E5F-DB4E-8C3D-61FF4C7401EF}"/>
+    <workbookView xWindow="-34620" yWindow="-1640" windowWidth="27840" windowHeight="15800" xr2:uid="{BBA69E4F-0E5F-DB4E-8C3D-61FF4C7401EF}"/>
   </bookViews>
   <sheets>
     <sheet name="边" sheetId="1" r:id="rId1"/>
     <sheet name="点" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_7边" localSheetId="0">边!$A$2:$G$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">点!$A$2:$A$5027</definedName>
+    <definedName name="_7边" localSheetId="0">边!$A$2:$F$3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -49,19 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
-  <si>
-    <t>element</t>
-  </si>
-  <si>
-    <t>cnt</t>
-  </si>
-  <si>
-    <t>round</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t>size</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Source</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,14 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点筛选维度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,6 +145,123 @@
   </si>
   <si>
     <t>信息5</t>
+  </si>
+  <si>
+    <t>边1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他信息1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他信息2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他信息3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他信息4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他信息5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外信息1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外信息2</t>
+  </si>
+  <si>
+    <t>额外信息3</t>
+  </si>
+  <si>
+    <t>额外信息4</t>
+  </si>
+  <si>
+    <t>额外信息5</t>
+  </si>
+  <si>
+    <t>补充信息1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充信息2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充信息3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充信息4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充信息5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外信息2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外信息3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充信息6</t>
+  </si>
+  <si>
+    <t>额外信息6</t>
+  </si>
+  <si>
+    <t>边6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他信息6</t>
   </si>
 </sst>
 </file>
@@ -209,7 +301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +311,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,7 +335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -248,6 +346,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,150 +669,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83E5166-E4C1-0A4F-83CA-15E45F3D753C}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="B2:E7"/>
+      <selection activeCell="F7" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
         <v>10</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1">
-        <v>20190910</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>40590</v>
-      </c>
-      <c r="G3">
-        <v>34.08</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1">
-        <v>20190910</v>
-      </c>
-      <c r="E4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1">
-        <v>20190910</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1">
-        <v>20190910</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1">
-        <v>20190910</v>
-      </c>
-      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A3:G3">
-    <sortCondition descending="1" ref="F2"/>
+  <sortState ref="A3:F3">
+    <sortCondition descending="1" ref="E2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -724,126 +860,159 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D7"/>
+      <selection activeCell="E7" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>19</v>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5" t="s">
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5">
+      <c r="C7">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:A5027" xr:uid="{100FC715-0DE4-5F4D-BD43-04095F303E88}"/>
-  <sortState ref="A3:C5026">
-    <sortCondition descending="1" ref="C2"/>
+  <sortState ref="A3:B5026">
+    <sortCondition descending="1" ref="B2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
